--- a/excel_to_word/data/finals.xlsx
+++ b/excel_to_word/data/finals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8310" windowHeight="8055" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8310" windowHeight="8055" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TA Invigilating" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Mohamad, Khajezade</t>
+  </si>
+  <si>
+    <t>MATH 318</t>
   </si>
 </sst>
 </file>
@@ -593,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -812,7 +815,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1033,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1127,7 @@
     <hyperlink ref="E6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1134,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1190,7 @@
         <v>57</v>
       </c>
       <c r="F3" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1204,23 +1207,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>36</v>
       </c>
     </row>
@@ -1230,8 +1250,10 @@
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
